--- a/AAII_Financials/Yearly/MYGN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MYGN_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Yearly/MYGN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MYGN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>MYGN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42916</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42551</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42185</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41820</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41455</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41090</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>638600</v>
+      </c>
+      <c r="E8" s="3">
         <v>851100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>743700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>728700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>740500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>723100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>778200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>613200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>496000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>186100</v>
+      </c>
+      <c r="E9" s="3">
         <v>201000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>177200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>171200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>157300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>147400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>109200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>79600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>64700</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>452500</v>
+      </c>
+      <c r="E10" s="3">
         <v>650100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>566500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>557500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>583200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>575700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>669000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>533500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>431300</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>77200</v>
+      </c>
+      <c r="E12" s="3">
         <v>68600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>70800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>74400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>70600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>75500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>67500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>53700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>42600</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,17 +887,20 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>99700</v>
+      </c>
+      <c r="E14" s="3">
         <v>24100</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>17</v>
@@ -898,12 +917,15 @@
       <c r="J14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -931,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>870300</v>
+      </c>
+      <c r="E17" s="3">
         <v>843500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>621800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>684700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>587100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>588900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>503800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>385200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>315700</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-231700</v>
+      </c>
+      <c r="E18" s="3">
         <v>7600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>121900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>44000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>153400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>134200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>274400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>228000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>180300</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1017,85 +1049,92 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E20" s="3">
         <v>4400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4200</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-140500</v>
+      </c>
+      <c r="E21" s="3">
         <v>85000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>177700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>90500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>183100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>159900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>291700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>242200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>193600</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E22" s="3">
         <v>12000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>300</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>17</v>
@@ -1106,69 +1145,78 @@
       <c r="K22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-223300</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>120100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>36200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>156000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>134900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>277900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>233300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>184500</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-4400</v>
-      </c>
-      <c r="E24" s="3">
-        <v>19000</v>
       </c>
       <c r="F24" s="3">
         <v>19000</v>
       </c>
       <c r="G24" s="3">
+        <v>19000</v>
+      </c>
+      <c r="H24" s="3">
         <v>38800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>54700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>101600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>86100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>72400</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-199600</v>
+      </c>
+      <c r="E26" s="3">
         <v>4400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>101100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>17200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>117200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>80200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>176200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>147100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>112200</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-199500</v>
+      </c>
+      <c r="E27" s="3">
         <v>4600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>101300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>17400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>117200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>80200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>176200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>147100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>112200</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1296,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>32000</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>17</v>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4200</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-199500</v>
+      </c>
+      <c r="E33" s="3">
         <v>4600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>133300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>17400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>117200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>80200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>176200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>147100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>112200</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-199500</v>
+      </c>
+      <c r="E35" s="3">
         <v>4600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>133300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>17400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>117200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>80200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>176200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>147100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>112200</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42916</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42551</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42185</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41820</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41455</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41090</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>163700</v>
+      </c>
+      <c r="E41" s="3">
         <v>93200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>110900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>102400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>68500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>64100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>64800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>104100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>86400</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>54100</v>
+      </c>
+      <c r="E42" s="3">
         <v>43700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>69700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>48300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>90500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>80700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>121600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>268200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>254200</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E43" s="3">
         <v>138600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>201600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>95900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>95000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>87700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>85100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>97000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>63100</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E44" s="3">
         <v>31400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>34300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>42200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>38300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>25100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>23900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>10000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>11600</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E45" s="3">
         <v>41700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>22200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>26000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>27000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7300</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>331700</v>
+      </c>
+      <c r="E46" s="3">
         <v>348600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>327600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>301700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>314500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>283600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>322400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>484000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>422500</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E47" s="3">
         <v>54900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>30700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>48500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>79900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>40600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>84100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>180400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>132700</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E48" s="3">
         <v>57300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>43200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>51100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>58300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>67200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>34600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>27600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>24200</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>932900</v>
+      </c>
+      <c r="E49" s="3">
         <v>1101900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>773800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>807600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>422800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>369800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>374500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>70200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>72600</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,9 +2005,12 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1904,24 +2023,27 @@
       <c r="F52" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G52" s="3">
-        <v>5000</v>
+      <c r="G52" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="H52" s="3">
         <v>5000</v>
       </c>
       <c r="I52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J52" s="3">
         <v>8200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>41600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>38600</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1404600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1562700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1175300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1208900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>880500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>766200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>823800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>803800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>690600</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,38 +2137,42 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E57" s="3">
         <v>33300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>26000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>22000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>21100</v>
       </c>
       <c r="H57" s="3">
         <v>21100</v>
       </c>
       <c r="I57" s="3">
+        <v>21100</v>
+      </c>
+      <c r="J57" s="3">
         <v>23100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>18100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10100</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2067,84 +2200,93 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>125300</v>
+      </c>
+      <c r="E59" s="3">
         <v>84500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>76200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>195500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>51200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>47600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>57500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>46400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>34800</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>147000</v>
+      </c>
+      <c r="E60" s="3">
         <v>117800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>102200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>217500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>72300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>68700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>80600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>64500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>45000</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>224400</v>
+      </c>
+      <c r="E61" s="3">
         <v>233500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>99100</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2157,39 +2299,45 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E62" s="3">
         <v>122500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>97700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>124300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>60100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>35400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>24200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10000</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>486400</v>
+      </c>
+      <c r="E66" s="3">
         <v>473800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>209200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>440500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>132400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>104100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>104800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>75200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>55000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-173900</v>
+      </c>
+      <c r="E72" s="3">
         <v>25600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>54100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-78200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-73200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-77000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>30900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12700</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>918200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1088900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>966100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>768400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>748100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>662100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>719000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>728600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>635700</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42916</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42551</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42185</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41820</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41455</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41090</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-199500</v>
+      </c>
+      <c r="E81" s="3">
         <v>4600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>133300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>17400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>117200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>80200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>176200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>147100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>112200</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E83" s="3">
         <v>73000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>54400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>48300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>26800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>25000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>13800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9100</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>60700</v>
+      </c>
+      <c r="E89" s="3">
         <v>83700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>115900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>106200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>166300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>140500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>190200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>173900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>141800</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-23900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-14300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9500</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-286400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-146300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-91400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>40900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-17700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-75600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-38900</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,8 +3291,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3088,9 +3321,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E100" s="3">
         <v>182300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-95000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>71800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-68300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-177300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-211800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-80600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-69200</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>500</v>
+      </c>
+      <c r="E101" s="3">
         <v>2700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4800</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>70500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-17700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>33900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-39300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>17700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>33700</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MYGN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MYGN_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,166 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42916</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42551</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42185</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41820</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41455</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41090</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>299800</v>
+      </c>
+      <c r="E8" s="3">
         <v>638600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>851100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>743700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>728700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>740500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>723100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>778200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>613200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>496000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>91400</v>
+      </c>
+      <c r="E9" s="3">
         <v>186100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>201000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>177200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>171200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>157300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>147400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>109200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>79600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>64700</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>208400</v>
+      </c>
+      <c r="E10" s="3">
         <v>452500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>650100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>566500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>557500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>583200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>575700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>669000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>533500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>431300</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,41 +838,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E12" s="3">
         <v>77200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>68600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>70800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>74400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>70600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>75500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>67500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>53700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>42600</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,20 +907,23 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>99700</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>98700</v>
+      </c>
+      <c r="F14" s="3">
         <v>24100</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>17</v>
@@ -920,12 +940,15 @@
       <c r="K14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -956,9 +979,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +995,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>870300</v>
+        <v>387600</v>
       </c>
       <c r="E17" s="3">
+        <v>869300</v>
+      </c>
+      <c r="F17" s="3">
         <v>843500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>621800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>684700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>587100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>588900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>503800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>385200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>315700</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-231700</v>
+        <v>-87800</v>
       </c>
       <c r="E18" s="3">
+        <v>-230700</v>
+      </c>
+      <c r="F18" s="3">
         <v>7600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>121900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>44000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>153400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>134200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>274400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>228000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>180300</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1050,94 +1083,101 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>19200</v>
+        <v>-500</v>
       </c>
       <c r="E20" s="3">
+        <v>18200</v>
+      </c>
+      <c r="F20" s="3">
         <v>4400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4200</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-52500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-140500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>85000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>177700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>90500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>183100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>159900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>291700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>242200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>193600</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E22" s="3">
         <v>10800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>12000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>17</v>
@@ -1148,75 +1188,84 @@
       <c r="L22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-94100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-223300</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>120100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>36200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>156000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>134900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>277900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>233300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>184500</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-23700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-4400</v>
-      </c>
-      <c r="F24" s="3">
-        <v>19000</v>
       </c>
       <c r="G24" s="3">
         <v>19000</v>
       </c>
       <c r="H24" s="3">
+        <v>19000</v>
+      </c>
+      <c r="I24" s="3">
         <v>38800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>54700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>101600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>86100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>72400</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1296,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-73800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-199600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>101100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>17200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>117200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>80200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>176200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>147100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>112200</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-73800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-199500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>101300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>17400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>117200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>80200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>176200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>147100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>112200</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,23 +1404,26 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>20700</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>32000</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>17</v>
@@ -1379,9 +1440,12 @@
       <c r="L29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1512,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-19200</v>
+        <v>500</v>
       </c>
       <c r="E32" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-4400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4200</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-53100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-199500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>133300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>17400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>117200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>80200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>176200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>147100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>112200</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1620,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-53100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-199500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>133300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>17400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>117200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>80200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>176200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>147100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>112200</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42916</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42551</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42185</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41820</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41455</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41090</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1732,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>117000</v>
+      </c>
+      <c r="E41" s="3">
         <v>163700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>93200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>110900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>102400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>68500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>64100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>64800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>104100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>86400</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E42" s="3">
         <v>54100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>43700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>69700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>48300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>90500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>80700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>121600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>268200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>254200</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>91500</v>
+      </c>
+      <c r="E43" s="3">
         <v>71000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>138600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>201600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>95900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>95000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>87700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>85100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>97000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>63100</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E44" s="3">
         <v>29100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>31400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>34300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>42200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>38300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>25100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>23900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>10000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>11600</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>120100</v>
+      </c>
+      <c r="E45" s="3">
         <v>13800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>41700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>22200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>26000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>27000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7300</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>389400</v>
+      </c>
+      <c r="E46" s="3">
         <v>331700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>348600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>327600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>301700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>314500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>283600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>322400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>484000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>422500</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E47" s="3">
         <v>37000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>54900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>30700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>48500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>79900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>40600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>84100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>180400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>132700</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>100400</v>
+      </c>
+      <c r="E48" s="3">
         <v>103000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>57300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>43200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>51100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>58300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>67200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>34600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>27600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>24200</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>905700</v>
+      </c>
+      <c r="E49" s="3">
         <v>932900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1101900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>773800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>807600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>422800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>369800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>374500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>70200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>72600</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,14 +2125,17 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>17</v>
+      <c r="D52" s="3">
+        <v>2300</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>17</v>
@@ -2026,24 +2146,27 @@
       <c r="G52" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H52" s="3">
-        <v>5000</v>
+      <c r="H52" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I52" s="3">
         <v>5000</v>
       </c>
       <c r="J52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K52" s="3">
         <v>8200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>41600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>38600</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2197,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1418800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1404600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1562700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1175300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1208900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>880500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>766200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>823800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>803800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>690600</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,41 +2268,45 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E57" s="3">
         <v>21700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>33300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>26000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>22000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>21100</v>
       </c>
       <c r="I57" s="3">
         <v>21100</v>
       </c>
       <c r="J57" s="3">
+        <v>21100</v>
+      </c>
+      <c r="K57" s="3">
         <v>23100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10100</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2203,93 +2337,102 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>125400</v>
+      </c>
+      <c r="E59" s="3">
         <v>125300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>84500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>76200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>195500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>51200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>47600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>57500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>46400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>34800</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>145900</v>
+      </c>
+      <c r="E60" s="3">
         <v>147000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>117800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>102200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>217500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>72300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>68700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>80600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>64500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>45000</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>224800</v>
+      </c>
+      <c r="E61" s="3">
         <v>224400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>233500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>99100</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2302,42 +2445,48 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>167100</v>
+      </c>
+      <c r="E62" s="3">
         <v>115000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>122500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>97700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>124300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>60100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>35400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>24200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10000</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2589,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>537800</v>
+      </c>
+      <c r="E66" s="3">
         <v>486400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>473800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>209200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>440500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>132400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>104100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>104800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>75200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>55000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2785,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-227000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-173900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>25600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>54100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-78200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-73200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-77000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>30900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12700</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2929,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>881000</v>
+      </c>
+      <c r="E76" s="3">
         <v>918200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1088900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>966100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>768400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>748100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>662100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>719000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>728600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>635700</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3001,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42916</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42551</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42185</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41820</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41455</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41090</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-53100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-199500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>133300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>17400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>117200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>80200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>176200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>147100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>112200</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3097,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E83" s="3">
         <v>72000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>73000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>54400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>48300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>26800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>25000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>13800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>9100</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3310,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-73700</v>
+      </c>
+      <c r="E89" s="3">
         <v>60700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>83700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>115900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>106200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>166300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>140500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>190200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>173900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>141800</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3365,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-23900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-14300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9500</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3470,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E94" s="3">
         <v>19300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-286400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-146300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-91400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>40900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-17700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-75600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-38900</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3324,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3666,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-10000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>182300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-95000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>71800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-68300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-177300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-211800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-80600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-69200</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4800</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="E102" s="3">
         <v>70500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-17700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>33900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-39300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>17700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>33700</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MYGN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MYGN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>MYGN</t>
   </si>
@@ -1125,8 +1125,8 @@
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
-        <v>-52500</v>
+      <c r="D21" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E21" s="3">
         <v>-140500</v>
@@ -3103,8 +3103,8 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>35800</v>
+      <c r="D83" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E83" s="3">
         <v>72000</v>
@@ -3319,8 +3319,8 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-73700</v>
+      <c r="D89" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E89" s="3">
         <v>60700</v>
@@ -3371,8 +3371,8 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-7900</v>
+      <c r="D91" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E91" s="3">
         <v>-10200</v>
@@ -3479,8 +3479,8 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>28000</v>
+      <c r="D94" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E94" s="3">
         <v>19300</v>
@@ -3675,8 +3675,8 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-2100</v>
+      <c r="D100" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E100" s="3">
         <v>-10000</v>
@@ -3711,8 +3711,8 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>1100</v>
+      <c r="D101" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E101" s="3">
         <v>500</v>
@@ -3747,8 +3747,8 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-46700</v>
+      <c r="D102" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E102" s="3">
         <v>70500</v>

--- a/AAII_Financials/Yearly/MYGN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MYGN_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,178 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42551</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42185</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41820</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41455</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41090</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>690600</v>
+      </c>
+      <c r="E8" s="3">
         <v>299800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>638600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>851100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>743700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>728700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>740500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>723100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>778200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>613200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>496000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>197600</v>
+      </c>
+      <c r="E9" s="3">
         <v>91400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>186100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>201000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>177200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>171200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>157300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>147400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>109200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>79600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>64700</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>493000</v>
+      </c>
+      <c r="E10" s="3">
         <v>208400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>452500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>650100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>566500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>557500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>583200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>575700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>669000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>533500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>431300</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,44 +851,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>81900</v>
+      </c>
+      <c r="E12" s="3">
         <v>35800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>77200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>68600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>70800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>74400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>70600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>75500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>67500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>53700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>42600</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,23 +926,26 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>63800</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>98700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>24100</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>17</v>
@@ -943,12 +962,15 @@
       <c r="L14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -982,9 +1004,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,80 +1021,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>881100</v>
+      </c>
+      <c r="E17" s="3">
         <v>387600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>869300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>843500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>621800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>684700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>587100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>588900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>503800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>385200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>315700</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-190500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-87800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-230700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>121900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>44000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>153400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>134200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>274400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>228000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>180300</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1084,103 +1116,110 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>140000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>18200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4200</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-140500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>85000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>177700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>90500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>183100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>159900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>291700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>242200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>193600</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E22" s="3">
         <v>5800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>10800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>12000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>6000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>300</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>17</v>
@@ -1191,81 +1230,90 @@
       <c r="M22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-57100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-94100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-223300</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>120100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>36200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>156000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>134900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>277900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>233300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>184500</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-20300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-23700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-4400</v>
-      </c>
-      <c r="G24" s="3">
-        <v>19000</v>
       </c>
       <c r="H24" s="3">
         <v>19000</v>
       </c>
       <c r="I24" s="3">
+        <v>19000</v>
+      </c>
+      <c r="J24" s="3">
         <v>38800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>54700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>101600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>86100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>72400</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,81 +1347,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-73800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-199600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>101100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>17200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>117200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>80200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>176200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>147100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>112200</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-73800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-199500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>101300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>17400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>117200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>80200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>176200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>147100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>112200</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,26 +1464,29 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E29" s="3">
         <v>20700</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>32000</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>17</v>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,81 +1581,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-140000</v>
+      </c>
+      <c r="E32" s="3">
         <v>500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-18200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4200</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-53100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-199500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>133300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>17400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>117200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>80200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>176200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>147100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>112200</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,86 +1698,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-53100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-199500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>133300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>17400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>117200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>80200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>176200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>147100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>112200</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42551</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42185</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41820</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41455</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41090</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,332 +1818,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>258400</v>
+      </c>
+      <c r="E41" s="3">
         <v>117000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>163700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>93200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>110900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>102400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>68500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>64100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>64800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>104100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>86400</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>81400</v>
+      </c>
+      <c r="E42" s="3">
         <v>33700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>54100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>43700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>69700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>48300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>90500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>80700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>121600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>268200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>254200</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>91300</v>
+      </c>
+      <c r="E43" s="3">
         <v>91500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>71000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>138600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>201600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>95900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>95000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>87700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>85100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>97000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>63100</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E44" s="3">
         <v>27100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>29100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>31400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>34300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>42200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>38300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>25100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>23900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>10000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>11600</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E45" s="3">
         <v>120100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>41700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>22200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>26000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>27000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7300</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>484800</v>
+      </c>
+      <c r="E46" s="3">
         <v>389400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>331700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>348600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>327600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>301700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>314500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>283600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>322400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>484000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>422500</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E47" s="3">
         <v>21000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>37000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>54900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>30700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>48500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>79900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>40600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>84100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>180400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>132700</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>125300</v>
+      </c>
+      <c r="E48" s="3">
         <v>100400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>103000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>57300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>43200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>51100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>58300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>67200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>34600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>27600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>24200</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>643300</v>
+      </c>
+      <c r="E49" s="3">
         <v>905700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>932900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1101900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>773800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>807600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>422800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>369800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>374500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>70200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>72600</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,17 +2244,20 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E52" s="3">
         <v>2300</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>17</v>
@@ -2149,24 +2268,27 @@
       <c r="H52" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I52" s="3">
-        <v>5000</v>
+      <c r="I52" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="J52" s="3">
         <v>5000</v>
       </c>
       <c r="K52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L52" s="3">
         <v>8200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>41600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>38600</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,45 +2322,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1320700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1418800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1404600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1562700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1175300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1208900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>880500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>766200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>823800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>803800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>690600</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,44 +2398,48 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E57" s="3">
         <v>20500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>21700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>33300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>26000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>22000</v>
-      </c>
-      <c r="I57" s="3">
-        <v>21100</v>
       </c>
       <c r="J57" s="3">
         <v>21100</v>
       </c>
       <c r="K57" s="3">
+        <v>21100</v>
+      </c>
+      <c r="L57" s="3">
         <v>23100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10100</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2340,102 +2473,111 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>174700</v>
+      </c>
+      <c r="E59" s="3">
         <v>125400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>125300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>84500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>76200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>195500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>51200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>47600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>57500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>46400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>34800</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>204300</v>
+      </c>
+      <c r="E60" s="3">
         <v>145900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>147000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>117800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>102200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>217500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>72300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>68700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>80600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>64500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>45000</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>224800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>224400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>233500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>99100</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2448,45 +2590,51 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>148600</v>
+      </c>
+      <c r="E62" s="3">
         <v>167100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>115000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>122500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>97700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>124300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>60100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>35400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>24200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10000</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,45 +2746,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>352900</v>
+      </c>
+      <c r="E66" s="3">
         <v>537800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>486400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>473800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>209200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>440500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>132400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>104100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>104800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>75200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>55000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,45 +2958,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-254200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-227000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-173900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>25600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>54100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-78200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-73200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-77000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>30900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12700</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,45 +3114,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>967800</v>
+      </c>
+      <c r="E76" s="3">
         <v>881000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>918200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1088900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>966100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>768400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>748100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>662100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>719000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>728600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>635700</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,86 +3192,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42551</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42185</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41820</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41455</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41090</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-53100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-199500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>133300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>17400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>117200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>80200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>176200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>147100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>112200</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,44 +3295,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="3">
+        <v>62800</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>72000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>73000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>54400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>48300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>26800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>25000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>13800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>9100</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,45 +3526,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E89" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>60700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>83700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>115900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>106200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>166300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>140500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>190200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>173900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>141800</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,44 +3585,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-23900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-14300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9500</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,45 +3699,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="3">
+        <v>274400</v>
+      </c>
+      <c r="E94" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>19300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-286400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-146300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-91400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>40900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-17700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-75600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-38900</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,115 +3911,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="3">
+        <v>-150600</v>
+      </c>
+      <c r="E100" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-10000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>182300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-95000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>71800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-68300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-177300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-211800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-80600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-69200</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4800</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="3">
+        <v>141400</v>
+      </c>
+      <c r="E102" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>70500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-17700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>33900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-39300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>17700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>33700</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MYGN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MYGN_YR_FIN.xlsx
@@ -936,7 +936,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>63800</v>
+        <v>-76700</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>881100</v>
+        <v>740600</v>
       </c>
       <c r="E17" s="3">
         <v>387600</v>
@@ -1067,7 +1067,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-190500</v>
+        <v>-50000</v>
       </c>
       <c r="E18" s="3">
         <v>-87800</v>
@@ -1123,7 +1123,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>140000</v>
+        <v>-500</v>
       </c>
       <c r="E20" s="3">
         <v>-500</v>
@@ -1591,7 +1591,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-140000</v>
+        <v>500</v>
       </c>
       <c r="E32" s="3">
         <v>500</v>

--- a/AAII_Financials/Yearly/MYGN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MYGN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>MYGN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,190 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42185</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41820</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41455</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41090</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>678400</v>
+      </c>
+      <c r="E8" s="3">
         <v>690600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>299800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>638600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>851100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>743700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>728700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>740500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>723100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>778200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>613200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>496000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>202000</v>
+      </c>
+      <c r="E9" s="3">
         <v>197600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>91400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>186100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>201000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>177200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>171200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>157300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>147400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>109200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>79600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>64700</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>476400</v>
+      </c>
+      <c r="E10" s="3">
         <v>493000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>208400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>452500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>650100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>566500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>557500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>583200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>575700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>669000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>533500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>431300</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -852,47 +864,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>85400</v>
+      </c>
+      <c r="E12" s="3">
         <v>81900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>35800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>77200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>68600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>70800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>74400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>70600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>75500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>67500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>53700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>42600</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -929,26 +945,29 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E14" s="3">
         <v>-76700</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>98700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>24100</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>17</v>
@@ -965,12 +984,15 @@
       <c r="M14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1007,9 +1029,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1022,86 +1047,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>819000</v>
+      </c>
+      <c r="E17" s="3">
         <v>740600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>387600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>869300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>843500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>621800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>684700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>587100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>588900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>503800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>385200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>315700</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-140600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-50000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-87800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-230700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>121900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>44000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>153400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>134200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>274400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>228000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>180300</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1117,112 +1149,119 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-500</v>
+        <v>3200</v>
       </c>
       <c r="E20" s="3">
         <v>-500</v>
       </c>
       <c r="F20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G20" s="3">
         <v>18200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4200</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-84700</v>
+      </c>
+      <c r="E21" s="3">
         <v>12300</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-140500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>85000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>177700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>90500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>183100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>159900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>291700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>242200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>193600</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E22" s="3">
         <v>6600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>10800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>12000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>6000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>300</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>17</v>
@@ -1233,87 +1272,96 @@
       <c r="N22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-140600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-57100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-94100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-223300</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>120100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>36200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>156000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>134900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>277900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>233300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>184500</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-32600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-20300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-23700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-4400</v>
-      </c>
-      <c r="H24" s="3">
-        <v>19000</v>
       </c>
       <c r="I24" s="3">
         <v>19000</v>
       </c>
       <c r="J24" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K24" s="3">
         <v>38800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>54700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>101600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>86100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>72400</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,87 +1398,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-112000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-24500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-73800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-199600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>101100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>17200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>117200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>80200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>176200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>147100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>112200</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-112000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-24500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-73800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-199500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>101300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>17400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>117200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>80200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>176200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>147100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>112200</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1467,29 +1524,32 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="3">
         <v>-2700</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>20700</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>32000</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>17</v>
@@ -1506,9 +1566,12 @@
       <c r="N29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1545,9 +1608,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1584,87 +1650,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>500</v>
+        <v>-3200</v>
       </c>
       <c r="E32" s="3">
         <v>500</v>
       </c>
       <c r="F32" s="3">
+        <v>500</v>
+      </c>
+      <c r="G32" s="3">
         <v>-18200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4200</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-112000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-27200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-53100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-199500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>133300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>17400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>117200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>80200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>176200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>147100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>112200</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1701,92 +1776,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-112000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-27200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-53100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-199500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>133300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>17400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>117200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>80200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>176200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>147100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>112200</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42185</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41820</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41455</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41090</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1802,8 +1886,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1819,359 +1904,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>56900</v>
+      </c>
+      <c r="E41" s="3">
         <v>258400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>117000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>163700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>93200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>110900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>102400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>68500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>64100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>64800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>104100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>86400</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E42" s="3">
         <v>81400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>33700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>54100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>43700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>69700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>48300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>90500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>80700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>121600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>268200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>254200</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>101600</v>
+      </c>
+      <c r="E43" s="3">
         <v>91300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>91500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>71000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>138600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>201600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>95900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>95000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>87700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>85100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>97000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>63100</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E44" s="3">
         <v>15300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>27100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>29100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>31400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>34300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>42200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>38300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>25100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>23900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>10000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>11600</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E45" s="3">
         <v>38400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>120100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>41700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>22200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>26000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>27000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7300</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>274600</v>
+      </c>
+      <c r="E46" s="3">
         <v>484800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>389400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>331700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>348600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>327600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>301700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>314500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>283600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>322400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>484000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>422500</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>54800</v>
+      </c>
+      <c r="E47" s="3">
         <v>59000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>21000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>37000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>54900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>30700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>48500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>79900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>40600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>84100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>180400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>132700</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>187300</v>
+      </c>
+      <c r="E48" s="3">
         <v>125300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>100400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>103000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>57300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>43200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>51100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>58300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>67200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>34600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>27600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>24200</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>666500</v>
+      </c>
+      <c r="E49" s="3">
         <v>643300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>905700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>932900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1101900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>773800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>807600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>422800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>369800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>374500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>70200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>72600</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,9 +2321,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2247,20 +2363,23 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E52" s="3">
         <v>8300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2300</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>17</v>
@@ -2271,24 +2390,27 @@
       <c r="I52" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J52" s="3">
-        <v>5000</v>
+      <c r="J52" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K52" s="3">
         <v>5000</v>
       </c>
       <c r="L52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M52" s="3">
         <v>8200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>41600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>38600</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2325,48 +2447,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1198700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1320700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1418800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1404600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1562700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1175300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1208900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>880500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>766200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>823800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>803800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>690600</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2382,8 +2510,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2399,47 +2528,51 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E57" s="3">
         <v>29600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>20500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>21700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>33300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>26000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>22000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>21100</v>
       </c>
       <c r="K57" s="3">
         <v>21100</v>
       </c>
       <c r="L57" s="3">
+        <v>21100</v>
+      </c>
+      <c r="M57" s="3">
         <v>23100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>18100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10100</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2476,87 +2609,96 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>108400</v>
+      </c>
+      <c r="E59" s="3">
         <v>174700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>125400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>125300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>84500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>76200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>195500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>51200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>47600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>57500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>46400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>34800</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>137200</v>
+      </c>
+      <c r="E60" s="3">
         <v>204300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>145900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>147000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>117800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>102200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>217500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>72300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>68700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>80600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>64500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>45000</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2564,23 +2706,23 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>224800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>224400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>233500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>99100</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2593,48 +2735,54 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>175700</v>
+      </c>
+      <c r="E62" s="3">
         <v>148600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>167100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>115000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>122500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>97700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>124300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>60100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>35400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>24200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10000</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2671,9 +2819,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2710,9 +2861,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2749,48 +2903,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>312900</v>
+      </c>
+      <c r="E66" s="3">
         <v>352900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>537800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>486400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>473800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>209200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>440500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>132400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>104100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>104800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>75200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>55000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2806,8 +2966,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2844,9 +3005,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2883,9 +3047,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2922,9 +3089,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2961,48 +3131,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-366200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-254200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-227000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-173900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>25600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>54100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-78200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-73200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-77000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>30900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12700</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3039,9 +3215,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3078,9 +3257,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3117,48 +3299,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>885800</v>
+      </c>
+      <c r="E76" s="3">
         <v>967800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>881000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>918200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1088900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>966100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>768400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>748100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>662100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>719000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>728600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>635700</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,92 +3383,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42185</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41820</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41455</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41090</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-112000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-27200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-53100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-199500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>133300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>17400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>117200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>80200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>176200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>147100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>112200</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3296,47 +3493,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>52700</v>
+      </c>
+      <c r="E83" s="3">
         <v>62800</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="F83" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>72000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>73000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>54400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>48300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>26800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>25000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>13800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9100</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3373,9 +3574,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3412,9 +3616,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3451,9 +3658,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3490,9 +3700,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3529,48 +3742,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-106300</v>
+      </c>
+      <c r="E89" s="3">
         <v>18200</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="F89" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>60700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>83700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>115900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>106200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>166300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>140500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>190200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>173900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>141800</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3586,47 +3805,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-18000</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="F91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-14300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9500</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3663,9 +3886,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3702,48 +3928,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-77500</v>
+      </c>
+      <c r="E94" s="3">
         <v>274400</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="F94" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>19300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-286400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-146300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-91400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>40900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-17700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-75600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-38900</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3759,8 +3991,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3797,9 +4030,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3836,9 +4072,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3875,9 +4114,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3914,124 +4156,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-150600</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="F100" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-10000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>182300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-95000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>71800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-68300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-177300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-211800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-80600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-69200</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>-600</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4800</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-192400</v>
+      </c>
+      <c r="E102" s="3">
         <v>141400</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="F102" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>70500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-17700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>8500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>33900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-39300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>17700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>33700</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
